--- a/SQL/Templates/Move Table to Another Database.xlsx
+++ b/SQL/Templates/Move Table to Another Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chickasawnation-my.sharepoint.com/personal/daniel_carpenter_chickasaw_net/Documents/Documents/GitHub/Coding-Resources/SQL/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.carpenter\OneDrive - the Chickasaw Nation\Documents\GitHub\Coding-Resources\SQL\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9490592-37CB-4305-8FF5-F5CD4A08669D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{A9490592-37CB-4305-8FF5-F5CD4A08669D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F5640A3D-D700-4708-AA10-E27349F0BC75}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8852FC26-EF44-4963-9254-533B47AE8A45}"/>
   </bookViews>
@@ -34,9 +34,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BUDGET</t>
-  </si>
-  <si>
-    <t>BallysJackpotDetailBAK</t>
   </si>
   <si>
     <t>Schema</t>
@@ -87,6 +84,9 @@
       </rPr>
       <t>then delete</t>
     </r>
+  </si>
+  <si>
+    <t>DOW</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -180,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -195,12 +201,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -512,7 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3320162-5473-4F76-B265-15F0214862F4}">
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="B7:G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -521,37 +540,37 @@
     <col min="5" max="7" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
       <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -559,19 +578,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6" t="str">
-        <f>"SELECT * INTO [" &amp; $C$2 &amp; "].[" &amp; B6 &amp; "].[" &amp; C6 &amp; "]  FROM [" &amp; $C$3 &amp; "].[" &amp; B6 &amp; "].["  &amp; C6 &amp;  "]"</f>
-        <v>SELECT * INTO [Sandbox].[BUDGET].[BallysJackpotDetailBAK]  FROM [OPA].[BUDGET].[BallysJackpotDetailBAK]</v>
+        <f>"SELECT * INTO [" &amp; $C$3 &amp; "].[" &amp; B6 &amp; "].[" &amp; C6 &amp; "]  FROM [" &amp; $C$2 &amp; "].[" &amp; B6 &amp; "].["  &amp; C6 &amp;  "]"</f>
+        <v>SELECT * INTO [Sandbox].[BUDGET].[DOW]  FROM [OPA].[BUDGET].[DOW]</v>
       </c>
       <c r="F6" t="str">
-        <f>"DROP TABLE [" &amp; $C$3 &amp; "].[" &amp; B6 &amp; "].[" &amp; C6 &amp; "]"</f>
-        <v>DROP TABLE [OPA].[BUDGET].[BallysJackpotDetailBAK]</v>
+        <f>"DROP TABLE [" &amp; $C$2 &amp; "].[" &amp; B6 &amp; "].[" &amp; C6 &amp; "]"</f>
+        <v>DROP TABLE [OPA].[BUDGET].[DOW]</v>
       </c>
       <c r="G6" t="str">
         <f>E6 &amp; " " &amp; F6</f>
-        <v>SELECT * INTO [Sandbox].[BUDGET].[BallysJackpotDetailBAK]  FROM [OPA].[BUDGET].[BallysJackpotDetailBAK] DROP TABLE [OPA].[BUDGET].[BallysJackpotDetailBAK]</v>
+        <v>SELECT * INTO [Sandbox].[BUDGET].[DOW]  FROM [OPA].[BUDGET].[DOW] DROP TABLE [OPA].[BUDGET].[DOW]</v>
       </c>
     </row>
   </sheetData>
@@ -795,18 +814,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,26 +848,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C72117B-7C7A-4DF5-B908-B7AFFB2D9294}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="34878772-60c1-4d27-aa3a-2b3fcedd817d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4bf0bd1f-afcf-47f4-8179-f8f4eae87b02"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5653E06C-5A7B-4D28-ABCC-85E372EA8136}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C72117B-7C7A-4DF5-B908-B7AFFB2D9294}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4bf0bd1f-afcf-47f4-8179-f8f4eae87b02"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="34878772-60c1-4d27-aa3a-2b3fcedd817d"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>